--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>NOAK fuld dosis</t>
+  </si>
+  <si>
+    <t>noak_c</t>
+  </si>
+  <si>
+    <t>NOAK fuld dosis postop</t>
   </si>
   <si>
     <t>antibiotics</t>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +579,7 @@
         <v>47</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -581,10 +587,10 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>50</v>
@@ -644,6 +650,20 @@
       </c>
       <c r="D10" t="s" s="2">
         <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-Medicine.xlsx
+++ b/fhir/CodeSystem-Medicine.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
